--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,117 +40,120 @@
     <t>name</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>stupid</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>fucking</t>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>sick</t>
   </si>
   <si>
     <t>destroying</t>
   </si>
   <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>crazy</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>fucked</t>
+    <t>bad</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>false</t>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>serious</t>
   </si>
   <si>
     <t>black</t>
   </si>
   <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -166,139 +169,154 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>essential</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>first</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>live</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>social</t>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>right</t>
   </si>
   <si>
-    <t>really</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>opener</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>opening</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>irony</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>real</t>
   </si>
   <si>
     <t>world</t>
   </si>
   <si>
-    <t>ironic</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>pro</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>need</t>
   </si>
   <si>
     <t>documentary</t>
@@ -307,37 +325,22 @@
     <t>watching</t>
   </si>
   <si>
-    <t>netflix</t>
+    <t>…</t>
   </si>
   <si>
     <t>watch</t>
   </si>
   <si>
+    <t>amp</t>
+  </si>
+  <si>
     <t>know</t>
   </si>
   <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>’</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>everyone</t>
+    <t>must</t>
   </si>
   <si>
     <t>watched</t>
@@ -701,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -709,10 +712,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -773,10 +776,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -791,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -823,10 +826,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -841,16 +844,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -862,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -891,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -920,13 +923,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9519230769230769</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C6">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -938,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K6">
-        <v>0.8666666666666667</v>
+        <v>0.88</v>
       </c>
       <c r="L6">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -962,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -970,13 +973,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9393939393939394</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C7">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -988,31 +991,31 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="L7">
+        <v>26</v>
+      </c>
+      <c r="M7">
+        <v>26</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>4</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7">
-        <v>0.86</v>
-      </c>
-      <c r="L7">
-        <v>43</v>
-      </c>
-      <c r="M7">
-        <v>43</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1020,13 +1023,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9333333333333333</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1038,19 +1041,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8">
-        <v>0.7931034482758621</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1062,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1070,13 +1073,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9333333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1088,19 +1091,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9">
-        <v>0.7894736842105263</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1112,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1120,13 +1123,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9166666666666666</v>
+        <v>0.9</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1141,16 +1144,16 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K10">
-        <v>0.75</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L10">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1162,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1170,13 +1173,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.9090909090909091</v>
+        <v>0.875</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1188,19 +1191,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K11">
-        <v>0.7368421052631579</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1220,13 +1223,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.875</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1241,16 +1244,16 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K12">
-        <v>0.7222222222222222</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L12">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M12">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1262,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1270,13 +1273,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8333333333333334</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1291,16 +1294,16 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K13">
-        <v>0.7066666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L13">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="M13">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1312,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1341,16 +1344,16 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K14">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1362,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1370,13 +1373,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1388,19 +1391,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15">
-        <v>0.6923076923076923</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L15">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M15">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1412,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1420,13 +1423,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7272727272727273</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1438,19 +1441,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K16">
-        <v>0.6333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L16">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="M16">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1462,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1470,13 +1473,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7246376811594203</v>
+        <v>0.75</v>
       </c>
       <c r="C17">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1488,19 +1491,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K17">
-        <v>0.6296296296296297</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1512,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1520,7 +1523,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7058823529411765</v>
+        <v>0.75</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -1538,19 +1541,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K18">
-        <v>0.6153846153846154</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L18">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1562,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1573,10 +1576,10 @@
         <v>0.7</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1588,19 +1591,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K19">
-        <v>0.5833333333333334</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L19">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M19">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1612,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1623,10 +1626,10 @@
         <v>0.7</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1638,31 +1641,31 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>12</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="L20">
+        <v>7</v>
+      </c>
+      <c r="M20">
+        <v>7</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>6</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="L20">
-        <v>18</v>
-      </c>
-      <c r="M20">
-        <v>18</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1670,38 +1673,38 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6923076923076923</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="L21">
         <v>9</v>
       </c>
-      <c r="D21">
+      <c r="M21">
         <v>9</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K21">
-        <v>0.4347826086956522</v>
-      </c>
-      <c r="L21">
-        <v>10</v>
-      </c>
-      <c r="M21">
-        <v>10</v>
-      </c>
       <c r="N21">
         <v>1</v>
       </c>
@@ -1712,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1720,13 +1723,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6666666666666666</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1738,19 +1741,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K22">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="L22">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="M22">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1762,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1770,13 +1773,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.631578947368421</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1788,19 +1791,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K23">
-        <v>0.4166666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1812,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1820,13 +1823,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1838,19 +1841,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K24">
-        <v>0.4166666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1862,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1870,13 +1873,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6170212765957447</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1888,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K25">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="L25">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1912,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1920,13 +1923,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6153846153846154</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1941,16 +1944,16 @@
         <v>10</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K26">
-        <v>0.3478260869565217</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L26">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="M26">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1962,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1970,13 +1973,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5882352941176471</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1988,19 +1991,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K27">
-        <v>0.3461538461538461</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2012,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2020,13 +2023,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5714285714285714</v>
+        <v>0.6376811594202898</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2038,19 +2041,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K28">
-        <v>0.3389830508474576</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2062,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2070,49 +2073,49 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5652173913043478</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K29">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="L29">
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <v>6</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>13</v>
-      </c>
-      <c r="D29">
-        <v>13</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>10</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K29">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="L29">
-        <v>9</v>
-      </c>
-      <c r="M29">
-        <v>9</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2120,38 +2123,38 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5428571428571428</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K30">
+        <v>0.3114754098360656</v>
+      </c>
+      <c r="L30">
         <v>19</v>
       </c>
-      <c r="D30">
+      <c r="M30">
         <v>19</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>16</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K30">
-        <v>0.3170731707317073</v>
-      </c>
-      <c r="L30">
-        <v>13</v>
-      </c>
-      <c r="M30">
-        <v>13</v>
-      </c>
       <c r="N30">
         <v>1</v>
       </c>
@@ -2162,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2170,13 +2173,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5384615384615384</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2188,19 +2191,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K31">
-        <v>0.3157894736842105</v>
+        <v>0.3105646630236794</v>
       </c>
       <c r="L31">
-        <v>6</v>
+        <v>341</v>
       </c>
       <c r="M31">
-        <v>6</v>
+        <v>341</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2212,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>757</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2220,13 +2223,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5128205128205128</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2238,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K32">
-        <v>0.2950819672131147</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2262,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2270,13 +2273,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2288,19 +2291,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K33">
-        <v>0.2914389799635702</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="L33">
-        <v>320</v>
+        <v>7</v>
       </c>
       <c r="M33">
-        <v>320</v>
+        <v>7</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2312,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>778</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2320,49 +2323,49 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>15</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K34">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="L34">
         <v>12</v>
       </c>
-      <c r="D34">
+      <c r="M34">
         <v>12</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>12</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K34">
-        <v>0.2641509433962264</v>
-      </c>
-      <c r="L34">
-        <v>14</v>
-      </c>
-      <c r="M34">
-        <v>15</v>
-      </c>
       <c r="N34">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2370,7 +2373,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C35">
         <v>14</v>
@@ -2388,19 +2391,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K35">
-        <v>0.2631578947368421</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2412,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2420,13 +2423,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2438,19 +2441,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K36">
-        <v>0.2195121951219512</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2462,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2473,10 +2476,10 @@
         <v>0.5</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2488,19 +2491,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K37">
-        <v>0.2173913043478261</v>
+        <v>0.2315789473684211</v>
       </c>
       <c r="L37">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2512,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2520,7 +2523,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -2538,19 +2541,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K38">
-        <v>0.2054794520547945</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M38">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2562,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2570,13 +2573,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3157894736842105</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2588,19 +2591,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K39">
-        <v>0.2</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="L39">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M39">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2612,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2620,38 +2623,38 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.217948717948718</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>20</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K40">
+        <v>0.2</v>
+      </c>
+      <c r="L40">
         <v>17</v>
       </c>
-      <c r="D40">
+      <c r="M40">
         <v>17</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>61</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K40">
-        <v>0.1882352941176471</v>
-      </c>
-      <c r="L40">
-        <v>16</v>
-      </c>
-      <c r="M40">
-        <v>16</v>
-      </c>
       <c r="N40">
         <v>1</v>
       </c>
@@ -2662,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2670,37 +2673,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.05536332179930796</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="C41">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D41">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E41">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>273</v>
+        <v>64</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K41">
-        <v>0.1846153846153846</v>
+        <v>0.1971830985915493</v>
       </c>
       <c r="L41">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M41">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2712,21 +2715,45 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.06122448979591837</v>
+      </c>
+      <c r="C42">
+        <v>18</v>
+      </c>
+      <c r="D42">
+        <v>23</v>
+      </c>
+      <c r="E42">
+        <v>0.22</v>
+      </c>
+      <c r="F42">
+        <v>0.78</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>276</v>
+      </c>
       <c r="J42" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K42">
-        <v>0.1830985915492958</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2738,21 +2765,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K43">
-        <v>0.1791044776119403</v>
+        <v>0.1917808219178082</v>
       </c>
       <c r="L43">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M43">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2764,15 +2791,15 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K44">
-        <v>0.1764705882352941</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="L44">
         <v>6</v>
@@ -2790,21 +2817,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K45">
-        <v>0.1730769230769231</v>
+        <v>0.14</v>
       </c>
       <c r="L45">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M45">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2821,10 +2848,10 @@
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K46">
-        <v>0.1578947368421053</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L46">
         <v>6</v>
@@ -2842,21 +2869,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K47">
-        <v>0.1481481481481481</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2868,21 +2895,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K48">
-        <v>0.1333333333333333</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="L48">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M48">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2894,21 +2921,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K49">
-        <v>0.131578947368421</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="L49">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M49">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2920,21 +2947,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K50">
-        <v>0.1224489795918367</v>
+        <v>0.1094890510948905</v>
       </c>
       <c r="L50">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M50">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2946,21 +2973,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>43</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K51">
-        <v>0.1166077738515901</v>
+        <v>0.1079365079365079</v>
       </c>
       <c r="L51">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M51">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2972,21 +2999,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>250</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K52">
-        <v>0.1114369501466276</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L52">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M52">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2998,21 +3025,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>303</v>
+        <v>490</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K53">
-        <v>0.1092592592592593</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L53">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="M53">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3024,21 +3051,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>481</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K54">
-        <v>0.08766233766233766</v>
+        <v>0.0858433734939759</v>
       </c>
       <c r="L54">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M54">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3050,21 +3077,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>562</v>
+        <v>607</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K55">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L55">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M55">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3076,21 +3103,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>105</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K56">
-        <v>0.08283132530120482</v>
+        <v>0.07067137809187279</v>
       </c>
       <c r="L56">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="M56">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3102,21 +3129,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>609</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K57">
-        <v>0.08108108108108109</v>
+        <v>0.07038123167155426</v>
       </c>
       <c r="L57">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="M57">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3128,47 +3155,47 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>68</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K58">
-        <v>0.07936507936507936</v>
+        <v>0.06978085351787774</v>
       </c>
       <c r="L58">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="M58">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>290</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K59">
-        <v>0.06113033448673587</v>
+        <v>0.06504065040650407</v>
       </c>
       <c r="L59">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="M59">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="N59">
         <v>0.98</v>
@@ -3180,21 +3207,21 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>1628</v>
+        <v>575</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K60">
-        <v>0.05504587155963303</v>
+        <v>0.05426356589147287</v>
       </c>
       <c r="L60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3206,47 +3233,47 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K61">
-        <v>0.05256410256410256</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="L61">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="M61">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="N61">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>739</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K62">
-        <v>0.04545454545454546</v>
+        <v>0.04609475032010243</v>
       </c>
       <c r="L62">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="M62">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3258,21 +3285,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>126</v>
+        <v>745</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K63">
-        <v>0.0425531914893617</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="L63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3284,59 +3311,33 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="K64">
-        <v>0.0353356890459364</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="L64">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M64">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N64">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="65" spans="10:17">
-      <c r="J65" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K65">
-        <v>0.03484320557491289</v>
-      </c>
-      <c r="L65">
-        <v>10</v>
-      </c>
-      <c r="M65">
-        <v>11</v>
-      </c>
-      <c r="N65">
-        <v>0.91</v>
-      </c>
-      <c r="O65">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P65" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q65">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
